--- a/codingRound-master/src/main/java/com/cleartrip/dataset/ExcelData.xlsx
+++ b/codingRound-master/src/main/java/com/cleartrip/dataset/ExcelData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB01717-8C5E-4222-914A-4E4D0585B68C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10F6DB02-5FF0-41BD-B383-88A7CAF9BA20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -55,6 +56,69 @@
   </si>
   <si>
     <t>positive</t>
+  </si>
+  <si>
+    <t>FlightBooking</t>
+  </si>
+  <si>
+    <t>departDate</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>infants</t>
+  </si>
+  <si>
+    <t>7/1/2018</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HotelsBookingTest</t>
+  </si>
+  <si>
+    <t>checkInDate</t>
+  </si>
+  <si>
+    <t>checkOutDate</t>
+  </si>
+  <si>
+    <t>7/6/2018</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Indiranagar, Bangalore</t>
+  </si>
+  <si>
+    <t>7/20/2018</t>
+  </si>
+  <si>
+    <t>7/22/2018</t>
+  </si>
+  <si>
+    <t>8/1/2018</t>
   </si>
 </sst>
 </file>
@@ -466,7 +530,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +541,7 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -541,6 +606,115 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
